--- a/GridWorld/Results/customerTimesResults.xlsx
+++ b/GridWorld/Results/customerTimesResults.xlsx
@@ -645,15 +645,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'EvenSplit(rand50)'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Customer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -9414,6 +9406,29 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>World Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Step</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="79177216"/>
@@ -9427,6 +9442,29 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of steps before leaving</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="79175680"/>
@@ -18415,6 +18453,24 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>World Step</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="79234944"/>
@@ -18428,6 +18484,29 @@
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>#</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of Steps in world</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="79233408"/>
@@ -19088,7 +19167,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1455"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>

--- a/GridWorld/Results/customerTimesResults.xlsx
+++ b/GridWorld/Results/customerTimesResults.xlsx
@@ -625,13 +625,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Jobs</a:t>
+              <a:t>Jobs Evenly Split Among Robots</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Evenly Split Among Robots</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -9417,13 +9412,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>World Time</a:t>
+                  <a:t>World Time Step</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Step</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9453,13 +9443,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
+                  <a:t># of steps before leaving</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of steps before leaving</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -9516,15 +9501,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>'RoomSplit(rand50)'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Total Time</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Customer</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575">
@@ -18495,13 +18472,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>#</a:t>
+                  <a:t># of Steps before leaving</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> of Steps in world</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -18709,13 +18681,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Time</a:t>
+                  <a:t>Time Slots</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Slots</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -35191,7 +35158,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C1633"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C1048576"/>
     </sheetView>
   </sheetViews>
